--- a/Test/excel/adv_dear_hski_001.xlsx
+++ b/Test/excel/adv_dear_hski_001.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren\Documents\GitHub\Gakumas-Commu-Parser\Test\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B468CE-C5AA-4152-BD6C-BC2DE8DC0159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -413,10 +419,6 @@
 and I'm invincible wherever I go!</t>
   </si>
   <si>
-    <t>Saki Hanami has a problem!
-Can you guess what it is!?</t>
-  </si>
-  <si>
     <t>If you really understand me,
 try answering!</t>
   </si>
@@ -561,13 +563,17 @@
   <si>
     <t>I'll support you with all my might
 so they can live up to their passion!</t>
+  </si>
+  <si>
+    <t>I Saki Hanami has a problem!
+Can you guess what it is!?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,13 +642,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,7 +694,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -714,6 +728,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -748,9 +763,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -923,18 +939,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="70.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -968,7 +986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1149,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +1283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1432,10 +1450,10 @@
         <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1449,10 +1467,10 @@
         <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1466,10 +1484,10 @@
         <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1483,10 +1501,10 @@
         <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1500,10 +1518,10 @@
         <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1517,10 +1535,10 @@
         <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1534,10 +1552,10 @@
         <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1551,10 +1569,10 @@
         <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1568,10 +1586,10 @@
         <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1585,10 +1603,10 @@
         <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1602,10 +1620,10 @@
         <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1619,10 +1637,10 @@
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1636,10 +1654,10 @@
         <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1653,10 +1671,10 @@
         <v>54</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1670,10 +1688,10 @@
         <v>55</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1687,10 +1705,10 @@
         <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1704,10 +1722,10 @@
         <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1721,10 +1739,10 @@
         <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1738,10 +1756,10 @@
         <v>59</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1755,10 +1773,10 @@
         <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1772,10 +1790,10 @@
         <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1789,10 +1807,10 @@
         <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -1806,10 +1824,10 @@
         <v>63</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -1823,10 +1841,10 @@
         <v>64</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -1840,10 +1858,10 @@
         <v>65</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -1857,10 +1875,10 @@
         <v>66</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -1874,10 +1892,10 @@
         <v>67</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -1891,10 +1909,10 @@
         <v>68</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -1908,10 +1926,10 @@
         <v>69</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -1925,10 +1943,10 @@
         <v>70</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -1942,10 +1960,10 @@
         <v>71</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -1959,10 +1977,10 @@
         <v>72</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -1976,10 +1994,10 @@
         <v>73</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -1993,10 +2011,10 @@
         <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2010,10 +2028,10 @@
         <v>75</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2027,10 +2045,10 @@
         <v>76</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2044,10 +2062,10 @@
         <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2061,10 +2079,10 @@
         <v>78</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2078,10 +2096,10 @@
         <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2095,10 +2113,10 @@
         <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2112,10 +2130,10 @@
         <v>81</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
